--- a/키워드 번역용.xlsx
+++ b/키워드 번역용.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\news-crawler-for-bipartite-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4941741E-6EE5-42E1-9846-852871C67A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB471B-FB42-4A86-8A4A-6F8C8DEEFF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ED3E37CE-5A7B-4473-9B6D-63167FF7DADC}"/>
   </bookViews>
@@ -27,71 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="127">
   <si>
-    <t>1위</t>
-  </si>
-  <si>
-    <t>2위</t>
-  </si>
-  <si>
-    <t>3위</t>
-  </si>
-  <si>
-    <t>4위</t>
-  </si>
-  <si>
-    <t>5위</t>
-  </si>
-  <si>
-    <t>6위</t>
-  </si>
-  <si>
-    <t>7위</t>
-  </si>
-  <si>
-    <t>8위</t>
-  </si>
-  <si>
-    <t>9위</t>
-  </si>
-  <si>
-    <t>10위</t>
-  </si>
-  <si>
-    <t>11위</t>
-  </si>
-  <si>
-    <t>12위</t>
-  </si>
-  <si>
-    <t>13위</t>
-  </si>
-  <si>
-    <t>14위</t>
-  </si>
-  <si>
-    <t>15위</t>
-  </si>
-  <si>
-    <t>16위</t>
-  </si>
-  <si>
-    <t>17위</t>
-  </si>
-  <si>
-    <t>18위</t>
-  </si>
-  <si>
-    <t>19위</t>
-  </si>
-  <si>
-    <t>20위</t>
-  </si>
-  <si>
     <t>21↓</t>
-  </si>
-  <si>
-    <t>20위 ↓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Trump</t>
@@ -409,6 +345,73 @@
   </si>
   <si>
     <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>Rank 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank 4</t>
+  </si>
+  <si>
+    <t>Rank 5</t>
+  </si>
+  <si>
+    <t>Rank 6</t>
+  </si>
+  <si>
+    <t>Rank 7</t>
+  </si>
+  <si>
+    <t>Rank 8</t>
+  </si>
+  <si>
+    <t>Rank 9</t>
+  </si>
+  <si>
+    <t>Rank 10</t>
+  </si>
+  <si>
+    <t>Rank 11</t>
+  </si>
+  <si>
+    <t>Rank 12</t>
+  </si>
+  <si>
+    <t>Rank 13</t>
+  </si>
+  <si>
+    <t>Rank 14</t>
+  </si>
+  <si>
+    <t>Rank 15</t>
+  </si>
+  <si>
+    <t>Rank 16</t>
+  </si>
+  <si>
+    <t>Rank 17</t>
+  </si>
+  <si>
+    <t>Rank 18</t>
+  </si>
+  <si>
+    <t>Rank 19</t>
+  </si>
+  <si>
+    <t>Rank 20</t>
+  </si>
+  <si>
+    <t>Rank 20 ↓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -24936,12 +24939,12 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB22" sqref="A1:AB22"/>
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
@@ -25031,1267 +25034,1267 @@
     </row>
     <row r="2" spans="1:28" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="6" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="6" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="6" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="6" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="6" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="6" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="6" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="8" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="6" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="6" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="8" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="10" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="10" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="10" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="10" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="10" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="10" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="U3" s="11"/>
       <c r="V3" s="12" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="W3" s="11"/>
       <c r="X3" s="10" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="11"/>
       <c r="Z3" s="10" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="11"/>
       <c r="AB3" s="12" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="14" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="14" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="14" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="14" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="14" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="14" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="U4" s="11"/>
       <c r="V4" s="15" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="W4" s="11"/>
       <c r="X4" s="14" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="11"/>
       <c r="Z4" s="14" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="11"/>
       <c r="AB4" s="15" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="10" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="10" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="10" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="10" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Y5" s="11"/>
       <c r="Z5" s="10" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="12" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="14" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="14" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="14" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="14" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="14" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="14" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="14" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="14" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="S6" s="11"/>
       <c r="T6" s="14" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="U6" s="11"/>
       <c r="V6" s="15" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="W6" s="11"/>
       <c r="X6" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="Y6" s="11"/>
       <c r="Z6" s="14" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="AA6" s="11"/>
       <c r="AB6" s="15" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="10" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="10" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="S7" s="11"/>
       <c r="T7" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="10" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="Y7" s="11"/>
       <c r="Z7" s="10" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AA7" s="11"/>
       <c r="AB7" s="12" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="14" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="14" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="14" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="14" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="14" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="14" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="14" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="14" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="S8" s="11"/>
       <c r="T8" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="U8" s="11"/>
       <c r="V8" s="15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="14" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Y8" s="11"/>
       <c r="Z8" s="14" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AA8" s="11"/>
       <c r="AB8" s="15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="10" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="10" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="10" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="S9" s="11"/>
       <c r="T9" s="10" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="U9" s="11"/>
       <c r="V9" s="12" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="10" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="Y9" s="11"/>
       <c r="Z9" s="10" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AA9" s="11"/>
       <c r="AB9" s="12" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="14" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="14" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="14" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="14" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="14" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="S10" s="11"/>
       <c r="T10" s="14" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="U10" s="11"/>
       <c r="V10" s="15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="W10" s="11"/>
       <c r="X10" s="14" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="Y10" s="11"/>
       <c r="Z10" s="14" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="AA10" s="11"/>
       <c r="AB10" s="15" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="10" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="10" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="10" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="10" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="10" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="S11" s="11"/>
       <c r="T11" s="10" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" s="12" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="W11" s="11"/>
       <c r="X11" s="10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="11"/>
       <c r="Z11" s="10" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="AA11" s="11"/>
       <c r="AB11" s="12" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="14" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="14" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="14" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="14" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="14" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="14" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="14" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="S12" s="11"/>
       <c r="T12" s="14" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="U12" s="11"/>
       <c r="V12" s="15" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="14" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="Y12" s="11"/>
       <c r="Z12" s="14" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="AA12" s="11"/>
       <c r="AB12" s="15" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="U13" s="11"/>
       <c r="V13" s="12" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="W13" s="11"/>
       <c r="X13" s="10" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="Y13" s="11"/>
       <c r="Z13" s="10" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="11"/>
       <c r="AB13" s="12" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="14" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="14" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="14" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="14" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="14" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="S14" s="11"/>
       <c r="T14" s="14" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="U14" s="11"/>
       <c r="V14" s="15" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="W14" s="11"/>
       <c r="X14" s="14" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Y14" s="11"/>
       <c r="Z14" s="14" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="AA14" s="11"/>
       <c r="AB14" s="15" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="10" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="10" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="10" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="10" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="10" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="S15" s="11"/>
       <c r="T15" s="10" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="U15" s="11"/>
       <c r="V15" s="12" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="W15" s="11"/>
       <c r="X15" s="10" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Y15" s="11"/>
       <c r="Z15" s="10" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="AA15" s="11"/>
       <c r="AB15" s="12" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="14" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="14" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="14" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="14" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="14" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="14" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="14" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="14" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="S16" s="11"/>
       <c r="T16" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="U16" s="11"/>
       <c r="V16" s="15" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="W16" s="11"/>
       <c r="X16" s="14" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="Y16" s="11"/>
       <c r="Z16" s="14" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AA16" s="11"/>
       <c r="AB16" s="15" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="10" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="10" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="10" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="S17" s="11"/>
       <c r="T17" s="10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="U17" s="11"/>
       <c r="V17" s="12" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="W17" s="11"/>
       <c r="X17" s="10" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="Y17" s="11"/>
       <c r="Z17" s="10" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="AA17" s="11"/>
       <c r="AB17" s="12" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="14" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="14" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="14" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="14" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="14" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="14" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="14" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="S18" s="11"/>
       <c r="T18" s="14" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="U18" s="11"/>
       <c r="V18" s="15" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="W18" s="11"/>
       <c r="X18" s="14" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="Y18" s="11"/>
       <c r="Z18" s="14" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AB18" s="15" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="10" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="10" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="10" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="10" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="S19" s="11"/>
       <c r="T19" s="10" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="U19" s="11"/>
       <c r="V19" s="12" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="10" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Y19" s="11"/>
       <c r="Z19" s="10" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AB19" s="12" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="14" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="14" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="14" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="14" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="14" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="14" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="14" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="S20" s="11"/>
       <c r="T20" s="14" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="15" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="14" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="Y20" s="11"/>
       <c r="Z20" s="14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="AA20" s="11"/>
       <c r="AB20" s="15" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="10" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="10" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="10" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="10" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="10" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="10" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="S21" s="11"/>
       <c r="T21" s="10" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="U21" s="11"/>
       <c r="V21" s="12" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="W21" s="11"/>
       <c r="X21" s="10" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="Y21" s="11"/>
       <c r="Z21" s="10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AA21" s="11"/>
       <c r="AB21" s="12" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="M22" s="18"/>
       <c r="N22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="O22" s="18"/>
       <c r="P22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="18"/>
       <c r="R22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="S22" s="18"/>
       <c r="T22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="U22" s="18"/>
       <c r="V22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="W22" s="18"/>
       <c r="X22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="Y22" s="18"/>
       <c r="Z22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="AA22" s="18"/>
       <c r="AB22" s="19" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>